--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -513,24 +513,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -540,14 +540,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -652,7 +652,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -753,16 +753,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -801,12 +801,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -849,24 +849,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -906,15 +906,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -940,21 +940,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -972,14 +972,14 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -988,21 +988,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1020,14 +1020,14 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
@@ -1036,29 +1036,29 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1068,14 +1068,14 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14">
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45293</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="L15" t="n">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
@@ -1216,7 +1216,7 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1244,7 +1244,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1294,7 +1294,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45296</v>
@@ -1316,7 +1316,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,10 +1352,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L19" t="n">
         <v>1500</v>
@@ -1374,7 +1374,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,43 +1388,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>9</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1343</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1438,11 +1436,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1453,18 +1451,18 @@
         <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1474,7 +1472,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1488,11 +1486,11 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1503,18 +1501,18 @@
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1524,7 +1522,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1538,36 +1536,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>985</v>
+        <v>10</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1336</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,11 +1784,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,24 +1796,24 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -1878,24 +1878,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1949,7 +1949,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +1980,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,12 +2064,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2135,15 +2135,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2157,16 +2157,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2188,16 +2188,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2219,24 +2219,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2286,19 +2286,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2317,19 +2317,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2383,7 +2383,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2414,15 +2414,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2538,15 +2538,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,11 +2565,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2659,19 +2659,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>244</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2689,7 +2689,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>244</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -2700,14 +2700,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>380</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2722,10 +2722,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2755,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -2808,14 +2808,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>277</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2827,31 +2827,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,15 +522,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -561,16 +561,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,14 +588,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +609,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -636,14 +636,14 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -657,24 +657,24 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -684,14 +684,14 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -700,7 +700,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -714,15 +714,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -748,21 +748,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -796,21 +796,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
@@ -844,29 +844,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +876,14 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -897,24 +897,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -924,14 +924,14 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11">
@@ -940,7 +940,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1036,7 +1036,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1089,16 +1089,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,10 +1154,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>45293</v>
@@ -1168,10 +1168,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1343</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="16">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,21 +1202,21 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1240,11 +1240,11 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1252,21 +1252,21 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1290,11 +1290,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1302,21 +1302,21 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1340,11 +1340,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1352,29 +1352,29 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H19" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1388,41 +1388,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>21</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1343</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1451,10 +1453,10 @@
         <v>50</v>
       </c>
       <c r="H21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1462,7 +1464,7 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1472,7 +1474,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1490,7 +1492,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1501,10 +1503,10 @@
         <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1512,7 +1514,7 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1522,7 +1524,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1540,21 +1542,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
@@ -1562,12 +1564,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>10</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="24">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1594,28 +1594,28 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L24" t="n">
-        <v>1500</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="25">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1646,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1684,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1696,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1734,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1746,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1774,7 +1774,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1784,36 +1784,36 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
+        <v>50</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>60</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>75</v>
-      </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L28" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -1887,15 +1887,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -1909,16 +1909,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -1940,16 +1940,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +1957,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1971,24 +1971,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2011,15 +2011,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,16 +2033,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2050,7 +2050,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,16 +2064,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2095,24 +2095,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2126,24 +2126,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2228,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2250,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +2267,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2286,19 +2286,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,7 +2308,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2317,19 +2317,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,7 +2339,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2379,11 +2379,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2410,19 +2410,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2445,15 +2445,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2472,11 +2472,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2534,19 +2534,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2565,11 +2565,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2577,7 +2577,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2659,7 +2659,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -2671,7 +2671,7 @@
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2689,25 +2689,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>380</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2736,14 +2736,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>244</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2755,13 +2755,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5">
@@ -2772,14 +2772,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2833,25 +2833,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2866,10 +2866,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -666,15 +666,15 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -700,21 +700,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -732,14 +732,14 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -748,29 +748,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +780,14 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -801,24 +801,24 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -828,14 +828,14 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -844,7 +844,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -858,15 +858,15 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1050,15 +1050,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1084,21 +1084,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1116,14 +1116,14 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
@@ -1132,29 +1132,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1164,164 +1164,158 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1336</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L16" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L17" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L18" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="19">
@@ -1330,60 +1324,60 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1392,21 +1386,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
@@ -1416,24 +1410,22 @@
       <c r="K20" t="n">
         <v>0</v>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L20" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1442,21 +1434,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
@@ -1466,24 +1458,22 @@
       <c r="K21" t="n">
         <v>0</v>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L21" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1492,11 +1482,11 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
@@ -1506,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
@@ -1516,10 +1506,8 @@
       <c r="K22" t="n">
         <v>0</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="L22" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="23">
@@ -1538,45 +1526,45 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
         <v>100</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>1500</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1586,45 +1574,47 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H24" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>80</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1336</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1634,11 +1624,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,21 +1636,21 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1670,11 +1660,11 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1684,11 +1674,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,21 +1686,21 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1720,11 +1710,11 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1734,11 +1724,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,21 +1736,21 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1770,49 +1760,793 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>35</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>60</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>75</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>43</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>50</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>43</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>50</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>35</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>50</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>43</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>50</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>42</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>50</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>80</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>100</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>80</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>80</v>
+      </c>
+      <c r="H36" t="n">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>30</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>29</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>40</v>
+      </c>
+      <c r="H37" t="n">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>15</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>25</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>40</v>
+      </c>
+      <c r="H38" t="n">
+        <v>15</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>15</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>28</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>40</v>
+      </c>
+      <c r="H39" t="n">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>15</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>28</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>40</v>
+      </c>
+      <c r="H40" t="n">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>15</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>28</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>40</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>15</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>36</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>40</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>15</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
         <v>50</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G43" t="n">
         <v>60</v>
       </c>
-      <c r="H28" t="n">
-        <v>40</v>
-      </c>
-      <c r="I28" s="2" t="n">
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>40</v>
-      </c>
-      <c r="L28" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1827,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1949,7 +2683,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1957,7 +2691,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -1980,15 +2714,15 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2002,16 +2736,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2019,7 +2753,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2033,24 +2767,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2064,24 +2798,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2104,15 +2838,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2166,7 +2900,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2174,7 +2908,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -2197,7 +2931,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2205,7 +2939,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2228,15 +2962,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2250,16 +2984,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2267,7 +3001,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -2281,24 +3015,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -2308,28 +3042,28 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -2339,28 +3073,28 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -2370,28 +3104,28 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -2405,24 +3139,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -2432,11 +3166,11 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2445,15 +3179,15 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -2463,11 +3197,11 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2476,15 +3210,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2494,11 +3228,11 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2507,11 +3241,11 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2534,19 +3268,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2556,7 +3290,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2565,21 +3299,610 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
+        <v>36</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
         <v>50</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>36</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>50</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>31</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>35</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>50</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>35</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>50</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DC_002</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>60</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>20</v>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="F29" t="n">
+        <v>75</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>43</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>50</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>43</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>50</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>35</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>50</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>43</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>50</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>42</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>50</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>80</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>80</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>50</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>29</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>25</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>25</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>25</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>28</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>25</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>28</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>25</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>28</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>25</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>36</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>25</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>50</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>60</v>
+      </c>
+      <c r="G43" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -2659,19 +3982,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -2689,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
@@ -2700,14 +4023,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -2719,31 +4042,31 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2761,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2803,7 +4126,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2815,7 +4138,7 @@
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2827,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2839,19 +4162,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -2866,10 +4189,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,10 +493,15 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>leadtime</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>deployed_qty</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quota</t>
         </is>
@@ -513,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -530,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -540,14 +545,17 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -561,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -578,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -588,14 +596,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -609,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -626,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -636,14 +647,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="5">
@@ -657,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -674,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -684,14 +698,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
@@ -705,16 +722,16 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -722,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -732,14 +749,17 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
@@ -753,16 +773,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -770,7 +790,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -780,14 +800,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -796,7 +819,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -810,15 +833,15 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -835,6 +858,9 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>985</v>
       </c>
     </row>
@@ -849,16 +875,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -866,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -876,14 +902,17 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -897,16 +926,16 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -914,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -924,14 +953,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="11">
@@ -945,12 +977,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -972,14 +1004,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="12">
@@ -993,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1010,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1020,14 +1055,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="13">
@@ -1041,24 +1079,24 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1068,14 +1106,17 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="14">
@@ -1084,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1123,6 +1164,9 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1146,7 +1190,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1154,7 +1198,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1171,6 +1215,9 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1194,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1202,7 +1249,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1219,6 +1266,9 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1267,6 +1317,9 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1315,6 +1368,9 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1338,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1346,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1363,6 +1419,9 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1411,6 +1470,9 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1434,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1459,6 +1521,9 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -1473,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1490,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1500,14 +1565,17 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1552,9 +1620,12 @@
         </is>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>1339</v>
       </c>
     </row>
@@ -1574,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1596,13 +1667,16 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1624,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1646,13 +1720,16 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1674,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1696,13 +1773,16 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1724,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1746,13 +1826,16 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1774,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1796,13 +1879,16 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1824,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1836,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1846,14 +1932,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" t="n">
-        <v>985</v>
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="30">
@@ -1872,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1894,13 +1983,16 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1922,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1944,13 +2036,16 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -1972,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1994,13 +2089,16 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2022,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2044,13 +2142,16 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2072,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2094,13 +2195,16 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2122,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2134,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2144,14 +2248,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>1500</v>
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="36">
@@ -2196,9 +2303,12 @@
         </is>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>30</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>1339</v>
       </c>
     </row>
@@ -2244,9 +2354,12 @@
         </is>
       </c>
       <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="n">
         <v>15</v>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2294,9 +2407,12 @@
         </is>
       </c>
       <c r="K38" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" t="n">
         <v>15</v>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2344,9 +2460,12 @@
         </is>
       </c>
       <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="n">
         <v>15</v>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2394,9 +2513,12 @@
         </is>
       </c>
       <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
         <v>15</v>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2444,9 +2566,12 @@
         </is>
       </c>
       <c r="K41" t="n">
+        <v>7</v>
+      </c>
+      <c r="L41" t="n">
         <v>15</v>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2494,9 +2619,12 @@
         </is>
       </c>
       <c r="K42" t="n">
+        <v>7</v>
+      </c>
+      <c r="L42" t="n">
         <v>15</v>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>inf</t>
         </is>
@@ -2544,9 +2672,12 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -2612,16 +2743,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2629,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2643,16 +2774,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2660,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2674,16 +2805,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2691,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2705,16 +2836,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2722,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2736,16 +2867,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2753,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2767,16 +2898,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -2784,7 +2915,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2807,15 +2938,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2829,16 +2960,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -2846,7 +2977,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -2860,16 +2991,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2877,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -2891,12 +3022,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -2922,16 +3053,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2939,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -2953,24 +3084,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -2993,15 +3124,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3024,7 +3155,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -3032,7 +3163,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3055,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3063,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3148,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3156,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3210,15 +3341,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3232,16 +3363,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3249,7 +3380,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3299,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3330,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3361,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3392,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3423,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3454,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3466,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3485,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3516,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3547,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3578,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3609,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3640,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3652,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3987,14 +4118,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4012,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4023,14 +4154,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4048,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4059,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4084,25 +4215,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4114,13 +4245,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4131,14 +4262,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4150,31 +4281,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4192,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -615,7 +615,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -666,7 +666,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -717,7 +717,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -731,7 +731,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -768,7 +768,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -819,17 +819,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1088,15 +1088,15 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1125,21 +1125,21 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="15">
@@ -1176,29 +1176,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="16">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1645,11 +1645,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1698,11 +1698,11 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1804,11 +1804,11 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1826,7 +1826,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1857,11 +1857,11 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K28" t="n">
@@ -1910,11 +1910,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1932,7 +1932,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K29" t="n">
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="30">
@@ -1961,11 +1961,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K30" t="n">
@@ -2014,11 +2014,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
@@ -2067,11 +2067,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2089,7 +2089,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
@@ -2120,11 +2120,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2173,11 +2173,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2226,11 +2226,11 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2258,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="36">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2907,15 +2907,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,12 +2929,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2960,24 +2960,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,7 +3000,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3031,7 +3031,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3093,15 +3093,15 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3115,16 +3115,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +3146,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3194,7 +3194,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,7 +3248,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,7 +3279,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3430,11 +3430,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3461,11 +3461,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3492,11 +3492,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3523,11 +3523,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3554,11 +3554,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -3585,11 +3585,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -3597,7 +3597,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3616,11 +3616,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3647,11 +3647,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3709,11 +3709,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3740,11 +3740,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3771,11 +3771,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4113,19 +4113,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
@@ -4190,14 +4190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>404</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4233,7 +4233,7 @@
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4257,19 +4257,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,25 +4287,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4317,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,21 +513,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -564,21 +564,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -615,21 +615,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -666,21 +666,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -717,21 +717,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -768,29 +768,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -819,29 +819,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -870,29 +870,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -935,15 +935,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K11" t="n">
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12">
@@ -1028,16 +1028,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K12" t="n">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="14">
@@ -1130,16 +1130,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K14" t="n">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="15">
@@ -1181,24 +1181,24 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K15" t="n">
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1343,15 +1343,15 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1394,15 +1394,15 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1496,15 +1496,15 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1538,24 +1538,24 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23">
@@ -1584,121 +1584,119 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1339</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M24" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1706,113 +1704,109 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M25" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M26" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G27" t="n">
@@ -1822,76 +1816,72 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M27" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M28" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="29">
@@ -1900,63 +1890,63 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45292</v>
+        <v>45293</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1965,21 +1955,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1987,73 +1977,69 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M30" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M31" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2067,46 +2053,44 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1339</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2120,11 +2104,11 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2138,11 +2122,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K33" t="n">
@@ -2159,7 +2143,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2173,11 +2157,11 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2191,11 +2175,11 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K34" t="n">
@@ -2212,7 +2196,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2226,29 +2210,29 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K35" t="n">
@@ -2257,17 +2241,19 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>1500</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2277,48 +2263,50 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H36" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L36" t="n">
-        <v>30</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1339</v>
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2328,11 +2316,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2340,24 +2328,24 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L37" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2367,11 +2355,11 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2381,50 +2369,48 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H38" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38" t="n">
-        <v>15</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2434,36 +2420,36 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2473,11 +2459,11 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2487,36 +2473,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2526,11 +2512,11 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2540,50 +2526,48 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L41" t="n">
-        <v>15</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2597,7 +2581,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2605,13 +2589,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2619,10 +2603,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2632,52 +2616,998 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>43</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>50</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>5</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>35</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>50</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>5</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>43</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>50</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>5</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>42</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>50</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>5</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>80</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>100</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>5</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>8</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>50</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>8</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>50</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>5</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>47</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>50</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>MAT_B</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E43" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>80</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>80</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+      <c r="I51" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>29</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>40</v>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>7</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>25</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>40</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>28</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>40</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>7</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>28</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>40</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>7</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>28</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>40</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>7</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>36</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>40</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>7</v>
+      </c>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
         <v>50</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G58" t="n">
         <v>60</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" s="2" t="n">
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K43" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>7</v>
       </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>40</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>7</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>40</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MAT_B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>33</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>40</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>7</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -2692,7 +3622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2743,16 +3673,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2760,7 +3690,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2774,16 +3704,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2791,7 +3721,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -2805,16 +3735,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2822,7 +3752,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2836,16 +3766,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2853,7 +3783,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -2867,16 +3797,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2884,7 +3814,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2898,24 +3828,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -2929,24 +3859,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -2960,24 +3890,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3000,15 +3930,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3022,16 +3952,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3039,7 +3969,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3053,16 +3983,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3070,7 +4000,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3084,12 +4014,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -3115,16 +4045,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -3132,7 +4062,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3146,24 +4076,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3186,15 +4116,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3217,15 +4147,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3248,15 +4178,15 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3279,15 +4209,15 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3310,7 +4240,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3318,7 +4248,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3341,15 +4271,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3363,24 +4293,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3394,24 +4324,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3421,28 +4351,28 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3452,16 +4382,16 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -3469,11 +4399,11 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3483,28 +4413,28 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3514,24 +4444,24 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -3545,28 +4475,28 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -3580,24 +4510,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -3607,11 +4537,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3620,15 +4550,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -3638,28 +4568,28 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -3669,7 +4599,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3678,19 +4608,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -3700,7 +4630,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3709,11 +4639,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3731,7 +4661,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3740,11 +4670,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3762,7 +4692,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3771,19 +4701,19 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3793,7 +4723,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -3802,15 +4732,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -3824,7 +4754,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45294</v>
+        <v>45298</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -3833,11 +4763,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3845,7 +4775,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3855,7 +4785,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -3864,19 +4794,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3886,7 +4816,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -3895,19 +4825,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3917,7 +4847,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -3926,19 +4856,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3948,7 +4878,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -3957,19 +4887,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3979,7 +4909,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45299</v>
+        <v>45294</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -3992,7 +4922,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4000,7 +4930,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4010,7 +4940,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4023,17 +4953,575 @@
         </is>
       </c>
       <c r="D43" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
         <v>50</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>35</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>50</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>50</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>42</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>50</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>80</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>net demand for safety</t>
         </is>
       </c>
-      <c r="F43" t="n">
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>8</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>50</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>50</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>47</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>50</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>80</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>safety</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>70</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>29</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>35</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>25</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>35</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>28</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>35</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>28</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>35</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45298</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>28</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>35</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>36</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>35</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>50</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
         <v>60</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>4</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>40</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>4</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>40</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>33</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>40</v>
+      </c>
+      <c r="G61" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4113,19 +5601,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4143,25 +5631,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>257</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4179,25 +5667,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>404</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4209,24 +5697,24 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -4257,19 +5745,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>257</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -4287,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -4305,7 +5793,7 @@
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -4317,7 +5805,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,16 +518,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9">
@@ -875,24 +875,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="10">
@@ -921,29 +921,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11">
@@ -972,7 +972,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1241,15 +1241,15 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1334,24 +1334,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="19">
@@ -1385,24 +1385,24 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="20">
@@ -1431,21 +1431,21 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="21">
@@ -1482,21 +1482,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="23">
@@ -1584,29 +1584,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="24">
@@ -1635,29 +1635,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="25">
@@ -1686,29 +1686,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="26">
@@ -1742,24 +1742,24 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="27">
@@ -1788,21 +1788,21 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,7 +1810,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K27" t="n">
@@ -1830,21 +1830,21 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1500</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1853,49 +1853,51 @@
         </is>
       </c>
       <c r="E28" t="n">
+        <v>43</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>50</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>4</v>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
-      <c r="M28" t="n">
-        <v>1500</v>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1904,49 +1906,51 @@
         </is>
       </c>
       <c r="E29" t="n">
+        <v>43</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>50</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>4</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AO</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
-      <c r="M29" t="n">
-        <v>1500</v>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1955,21 +1959,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1977,64 +1981,68 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
-      <c r="M30" t="n">
-        <v>1500</v>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
-      <c r="M31" t="n">
-        <v>985</v>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -2053,44 +2061,44 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>100</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45293</v>
+        <v>45292</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1339</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2104,15 +2112,15 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G33" t="n">
@@ -2122,15 +2130,15 @@
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -2143,7 +2151,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2157,15 +2165,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -2175,15 +2183,15 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2196,7 +2204,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2210,15 +2218,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2228,28 +2236,26 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M35" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2267,7 +2273,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -2281,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
@@ -2289,7 +2295,7 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2320,7 +2326,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2334,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
@@ -2342,7 +2348,7 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -2355,7 +2361,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2373,21 +2379,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
@@ -2395,18 +2401,20 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
-      <c r="M38" t="n">
-        <v>985</v>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2424,11 +2432,11 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -2438,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2446,7 +2454,7 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -2459,7 +2467,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2477,21 +2485,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
@@ -2499,20 +2507,18 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M40" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2530,11 +2536,11 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
@@ -2544,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
@@ -2552,18 +2558,20 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="n">
-        <v>985</v>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2577,15 +2585,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G42" t="n">
@@ -2595,15 +2603,15 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -2616,7 +2624,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2630,15 +2638,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2648,32 +2656,30 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M43" t="n">
+        <v>985</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2683,50 +2689,48 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2740,7 +2744,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2748,13 +2752,13 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
@@ -2762,10 +2766,10 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2775,11 +2779,11 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2793,7 +2797,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2801,13 +2805,13 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2815,10 +2819,10 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2828,11 +2832,11 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2846,21 +2850,21 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45292</v>
+        <v>45296</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
@@ -2868,22 +2872,24 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2897,21 +2903,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
@@ -2919,10 +2925,10 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2932,11 +2938,11 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2950,21 +2956,21 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45296</v>
+        <v>45292</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2972,24 +2978,22 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M49" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3003,21 +3007,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -3025,18 +3029,20 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
       </c>
-      <c r="M50" t="n">
-        <v>1500</v>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3050,44 +3056,46 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>10</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1339</v>
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -3105,21 +3113,21 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>40</v>
       </c>
       <c r="H52" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -3127,487 +3135,12 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>25</v>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G53" t="n">
-        <v>40</v>
-      </c>
-      <c r="H53" t="n">
-        <v>5</v>
-      </c>
-      <c r="I53" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>7</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>28</v>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>40</v>
-      </c>
-      <c r="H54" t="n">
-        <v>5</v>
-      </c>
-      <c r="I54" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>7</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>28</v>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G55" t="n">
-        <v>40</v>
-      </c>
-      <c r="H55" t="n">
-        <v>5</v>
-      </c>
-      <c r="I55" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>7</v>
-      </c>
-      <c r="L55" t="n">
-        <v>5</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>28</v>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G56" t="n">
-        <v>40</v>
-      </c>
-      <c r="H56" t="n">
-        <v>5</v>
-      </c>
-      <c r="I56" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>7</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>36</v>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="G57" t="n">
-        <v>40</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5</v>
-      </c>
-      <c r="I57" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>7</v>
-      </c>
-      <c r="L57" t="n">
-        <v>5</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>50</v>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G58" t="n">
-        <v>60</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>7</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>4</v>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G59" t="n">
-        <v>40</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>7</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>4</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>40</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>7</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>MAT_B</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>33</v>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G61" t="n">
-        <v>40</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>7</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3622,7 +3155,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3673,16 +3206,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3690,7 +3223,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3704,16 +3237,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3721,7 +3254,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3735,16 +3268,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3752,7 +3285,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3766,16 +3299,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3783,7 +3316,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3797,24 +3330,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3828,24 +3361,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3859,16 +3392,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3876,7 +3409,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3890,24 +3423,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3921,24 +3454,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3961,7 +3494,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3969,7 +3502,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3992,7 +3525,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -4000,7 +3533,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -4023,7 +3556,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -4031,7 +3564,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -4054,15 +3587,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -4085,15 +3618,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -4116,15 +3649,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -4147,15 +3680,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -4169,24 +3702,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -4200,24 +3733,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -4231,16 +3764,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -4248,7 +3781,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -4262,16 +3795,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -4279,7 +3812,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -4293,24 +3826,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -4324,24 +3857,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -4355,24 +3888,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -4386,24 +3919,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -4417,24 +3950,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -4448,16 +3981,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -4465,7 +3998,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4475,11 +4008,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4488,15 +4021,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4506,11 +4039,11 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4519,15 +4052,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4537,11 +4070,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4550,15 +4083,15 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4568,28 +4101,28 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4608,19 +4141,19 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D32" t="n">
+        <v>80</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
         <v>100</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>safety</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4630,7 +4163,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4639,15 +4172,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -4661,7 +4194,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4670,15 +4203,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4692,7 +4225,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4701,15 +4234,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4723,7 +4256,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4736,7 +4269,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -4754,7 +4287,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4767,7 +4300,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4785,7 +4318,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4798,15 +4331,15 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4816,7 +4349,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4829,11 +4362,11 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
@@ -4847,7 +4380,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4860,15 +4393,15 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4878,7 +4411,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4891,11 +4424,11 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -4909,7 +4442,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4918,15 +4451,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -4940,7 +4473,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4949,15 +4482,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4971,7 +4504,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4980,19 +4513,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -5002,7 +4535,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45297</v>
+        <v>45294</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5015,7 +4548,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -5023,7 +4556,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -5033,7 +4566,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5046,7 +4579,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5054,7 +4587,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5064,7 +4597,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5077,15 +4610,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5095,7 +4628,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5108,15 +4641,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5126,7 +4659,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5139,15 +4672,15 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -5157,7 +4690,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5170,15 +4703,15 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -5188,7 +4721,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5197,19 +4730,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5219,7 +4752,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5232,296 +4765,17 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G52" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>25</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>35</v>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>45296</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>28</v>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>35</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>45297</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>28</v>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>35</v>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>45298</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>28</v>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>35</v>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>36</v>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>net demand for forecast</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>35</v>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>50</v>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>60</v>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>45294</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>4</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>40</v>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>45295</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>4</v>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>net demand for AO</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>40</v>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>supply shortage</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>45293</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>PLANT_001</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>DC_001</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>33</v>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>40</v>
-      </c>
-      <c r="G61" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -5606,14 +4860,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -5631,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -5649,7 +4903,7 @@
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5667,25 +4921,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>404</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>420</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5697,13 +4951,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5">
@@ -5714,14 +4968,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5733,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5750,14 +5004,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5775,7 +5029,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -5786,14 +5040,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5811,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -926,24 +926,24 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="11">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1329,29 +1329,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="19">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1547,15 +1547,15 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1598,15 +1598,15 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1649,7 +1649,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1751,15 +1751,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1810,10 +1810,10 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45293</v>
@@ -1827,10 +1827,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M27" t="n">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="28">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1853,7 +1853,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1861,10 +1861,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45294</v>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1906,7 +1906,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45295</v>
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1967,10 +1967,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45296</v>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45297</v>
@@ -2037,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2051,7 +2051,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2073,7 +2073,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2098,11 +2098,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2116,7 +2116,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -2124,13 +2124,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2151,11 +2151,11 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2169,7 +2169,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -2269,46 +2269,44 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>78</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1343</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2322,11 +2320,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2337,21 +2335,21 @@
         <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2361,7 +2359,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2375,11 +2373,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2390,21 +2388,21 @@
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2414,7 +2412,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2428,7 +2426,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -2443,21 +2441,21 @@
         <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2467,7 +2465,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2481,44 +2479,46 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>985</v>
+        <v>39</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2532,29 +2532,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45295</v>
+        <v>45292</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2563,15 +2563,13 @@
       <c r="L41" t="n">
         <v>0</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M41" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2585,11 +2583,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2603,11 +2601,11 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2624,7 +2622,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2638,15 +2636,15 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -2656,11 +2654,11 @@
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2669,8 +2667,10 @@
       <c r="L43" t="n">
         <v>0</v>
       </c>
-      <c r="M43" t="n">
-        <v>985</v>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2689,39 +2689,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1336</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="45">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2752,24 +2752,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2805,24 +2805,24 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2846,11 +2846,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2858,24 +2858,24 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2899,11 +2899,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2911,24 +2911,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2952,11 +2952,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2984,16 +2984,16 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3015,17 +3015,17 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3042,11 +3042,11 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3068,17 +3068,17 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3109,11 +3109,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3277,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3401,7 +3401,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -3440,7 +3440,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3454,24 +3454,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3494,7 +3494,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3533,7 +3533,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3587,15 +3587,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3618,15 +3618,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3680,15 +3680,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3702,24 +3702,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3804,7 +3804,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3835,15 +3835,15 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3866,15 +3866,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3928,15 +3928,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3959,15 +3959,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4114,7 +4114,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4145,7 +4145,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -4184,7 +4184,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4194,7 +4194,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -4238,7 +4238,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4265,19 +4265,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4296,11 +4296,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4318,7 +4318,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4327,11 +4327,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4380,7 +4380,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4389,19 +4389,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4420,19 +4420,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45293</v>
+        <v>45296</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4482,15 +4482,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -4513,19 +4513,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4575,11 +4575,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4606,11 +4606,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4637,11 +4637,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4668,11 +4668,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4690,7 +4690,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4711,7 +4711,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4773,7 +4773,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -4860,14 +4860,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4885,25 +4885,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4921,25 +4921,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4999,19 +4999,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5029,25 +5029,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>277</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5065,7 +5065,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -513,29 +513,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K2" t="n">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
@@ -569,16 +569,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -596,7 +596,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K3" t="n">
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4">
@@ -620,16 +620,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -647,7 +647,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K4" t="n">
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="5">
@@ -671,16 +671,16 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="6">
@@ -722,24 +722,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -749,7 +749,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7">
@@ -773,24 +773,24 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K7" t="n">
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="8">
@@ -824,16 +824,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -851,7 +851,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K8" t="n">
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="9">
@@ -875,24 +875,24 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K9" t="n">
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="10">
@@ -921,7 +921,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -935,15 +935,15 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1385,16 +1385,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="20">
@@ -1436,16 +1436,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K20" t="n">
@@ -1473,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="21">
@@ -1487,16 +1487,16 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K21" t="n">
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="22">
@@ -1538,16 +1538,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23">
@@ -1589,16 +1589,16 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K23" t="n">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24">
@@ -1640,16 +1640,16 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K24" t="n">
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="25">
@@ -1691,16 +1691,16 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K25" t="n">
@@ -1728,7 +1728,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26">
@@ -1742,16 +1742,16 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -1759,7 +1759,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K26" t="n">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="27">
@@ -1813,7 +1813,7 @@
         <v>80</v>
       </c>
       <c r="H27" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45293</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M27" t="n">
         <v>1343</v>
@@ -1864,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="H28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>45294</v>
@@ -1878,7 +1878,7 @@
         <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>40</v>
       </c>
       <c r="H29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>45295</v>
@@ -1931,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1970,7 +1970,7 @@
         <v>40</v>
       </c>
       <c r="H30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>45296</v>
@@ -1984,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="L30" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -2023,7 +2023,7 @@
         <v>40</v>
       </c>
       <c r="H31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>45297</v>
@@ -2037,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45293</v>
@@ -2298,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="M36" t="n">
         <v>1343</v>
@@ -2320,11 +2320,11 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -2335,21 +2335,21 @@
         <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
         <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2373,11 +2373,11 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -2388,21 +2388,21 @@
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
         <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2426,11 +2426,11 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -2441,21 +2441,21 @@
         <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2479,11 +2479,11 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -2494,21 +2494,21 @@
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
         <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -2544,7 +2544,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="42">
@@ -2583,11 +2583,11 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
@@ -2636,11 +2636,11 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
@@ -2689,11 +2689,11 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -2711,7 +2711,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K44" t="n">
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1500</v>
+        <v>985</v>
       </c>
     </row>
     <row r="45">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2755,21 +2755,21 @@
         <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2808,21 +2808,21 @@
         <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2861,21 +2861,21 @@
         <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2914,21 +2914,21 @@
         <v>50</v>
       </c>
       <c r="H48" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2952,11 +2952,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="50">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3109,11 +3109,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3141,7 +3141,7 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
   </sheetData>
@@ -3206,24 +3206,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3237,16 +3237,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3268,16 +3268,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3285,7 +3285,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3299,16 +3299,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3330,24 +3330,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3361,24 +3361,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3392,16 +3392,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3423,24 +3423,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3463,15 +3463,15 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3733,16 +3733,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -3750,7 +3750,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3764,16 +3764,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3795,16 +3795,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3826,16 +3826,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3857,16 +3857,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3888,16 +3888,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -3905,7 +3905,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3919,16 +3919,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3950,16 +3950,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -3967,7 +3967,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3998,7 +3998,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -4029,7 +4029,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -4091,7 +4091,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4296,11 +4296,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -4308,7 +4308,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4327,11 +4327,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4358,11 +4358,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -4370,7 +4370,7 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4389,11 +4389,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4420,11 +4420,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4451,11 +4451,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -4482,11 +4482,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -4513,11 +4513,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4544,11 +4544,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4575,11 +4575,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4606,11 +4606,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4637,11 +4637,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4668,11 +4668,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -4680,7 +4680,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4699,11 +4699,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4730,11 +4730,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4761,11 +4761,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -527,15 +527,15 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +578,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -731,15 +731,15 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -782,15 +782,15 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -841,7 +841,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -884,15 +884,15 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>985</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -921,29 +921,29 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K10" t="n">
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>985</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="11">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1139,15 +1139,15 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1190,15 +1190,15 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1292,15 +1292,15 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1334,24 +1334,24 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -1380,29 +1380,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K19" t="n">
@@ -1422,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -1445,7 +1445,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1453,7 +1453,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1598,15 +1598,15 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1649,15 +1649,15 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1708,7 +1708,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1751,15 +1751,15 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1788,54 +1788,54 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="H27" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1343</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1849,46 +1849,44 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>80</v>
+      </c>
+      <c r="H28" t="n">
         <v>40</v>
       </c>
-      <c r="H28" t="n">
-        <v>20</v>
-      </c>
       <c r="I28" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>20</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -1906,7 +1904,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1920,7 +1918,7 @@
         <v>20</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
@@ -1941,7 +1939,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1959,7 +1957,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -1973,7 +1971,7 @@
         <v>20</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
@@ -1994,7 +1992,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -2012,7 +2010,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2026,7 +2024,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -2047,7 +2045,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -2065,21 +2063,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45292</v>
+        <v>45297</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
@@ -2090,15 +2088,17 @@
         <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1500</v>
+        <v>20</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -2116,21 +2116,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45294</v>
+        <v>45292</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -2143,15 +2143,13 @@
       <c r="L33" t="n">
         <v>0</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M33" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -2169,7 +2167,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -2183,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
@@ -2204,7 +2202,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2222,11 +2220,11 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -2236,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2249,8 +2247,10 @@
       <c r="L35" t="n">
         <v>0</v>
       </c>
-      <c r="M35" t="n">
-        <v>1500</v>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2269,39 +2269,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H36" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1343</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="37">
@@ -2320,36 +2320,36 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>50</v>
       </c>
       <c r="H37" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2373,36 +2373,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>50</v>
       </c>
       <c r="H38" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2426,36 +2426,36 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>50</v>
       </c>
       <c r="H39" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2479,36 +2479,36 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>50</v>
       </c>
       <c r="H40" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2532,44 +2532,46 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45292</v>
+        <v>45298</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>985</v>
+        <v>17</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2583,36 +2585,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2622,7 +2624,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2636,41 +2638,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="M43" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="44">
@@ -2689,39 +2689,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M44" t="n">
-        <v>985</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="45">
@@ -2740,11 +2740,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2752,24 +2752,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H45" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2793,11 +2793,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2805,24 +2805,24 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H46" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2846,11 +2846,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2858,24 +2858,24 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2899,11 +2899,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
@@ -2911,24 +2911,24 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="I48" s="2" t="n">
         <v>45297</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
@@ -2952,11 +2952,11 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2984,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50">
@@ -3003,11 +3003,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3056,11 +3056,11 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3109,11 +3109,11 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K52" t="n">
@@ -3141,6 +3141,426 @@
         <v>0</v>
       </c>
       <c r="M52" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>45</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>50</v>
+      </c>
+      <c r="H53" t="n">
+        <v>17</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>45294</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>4</v>
+      </c>
+      <c r="L53" t="n">
+        <v>17</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>45</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>50</v>
+      </c>
+      <c r="H54" t="n">
+        <v>17</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>17</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>38</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>50</v>
+      </c>
+      <c r="H55" t="n">
+        <v>17</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L55" t="n">
+        <v>17</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>45</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>50</v>
+      </c>
+      <c r="H56" t="n">
+        <v>17</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>4</v>
+      </c>
+      <c r="L56" t="n">
+        <v>17</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>80</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>100</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>4</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>7</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>50</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>50</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MAT_A</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>40</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>50</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>4</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
         <v>1500</v>
       </c>
     </row>
@@ -3155,7 +3575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3215,15 +3635,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -3246,7 +3666,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3254,7 +3674,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -3277,7 +3697,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3285,7 +3705,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -3308,7 +3728,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3316,7 +3736,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -3339,15 +3759,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -3370,15 +3790,15 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3401,7 +3821,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -3409,7 +3829,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -3432,15 +3852,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3454,24 +3874,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3494,7 +3914,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -3502,7 +3922,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -3525,7 +3945,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -3533,7 +3953,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -3556,7 +3976,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -3564,7 +3984,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -3587,15 +4007,15 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -3618,15 +4038,15 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -3649,7 +4069,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -3657,7 +4077,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -3680,15 +4100,15 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -3702,24 +4122,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -3733,24 +4153,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -3773,7 +4193,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -3781,7 +4201,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -3804,7 +4224,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -3812,7 +4232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -3835,7 +4255,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -3843,7 +4263,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -3866,15 +4286,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -3897,15 +4317,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -3928,7 +4348,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -3936,7 +4356,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -3959,15 +4379,15 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>AO</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -3981,20 +4401,20 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -4008,7 +4428,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4017,19 +4437,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4039,7 +4459,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4052,7 +4472,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -4070,7 +4490,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4083,7 +4503,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -4101,7 +4521,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45297</v>
+        <v>45296</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4114,7 +4534,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -4132,7 +4552,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45293</v>
+        <v>45297</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4145,15 +4565,15 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -4163,7 +4583,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4176,15 +4596,15 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4194,7 +4614,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4207,7 +4627,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -4225,7 +4645,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4238,11 +4658,11 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4265,19 +4685,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -4296,19 +4716,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4327,19 +4747,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4358,19 +4778,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4389,19 +4809,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4411,7 +4831,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45293</v>
+        <v>45298</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4420,19 +4840,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4442,7 +4862,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45295</v>
+        <v>45299</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4451,19 +4871,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4473,7 +4893,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4482,19 +4902,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4504,7 +4924,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4517,15 +4937,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4535,7 +4955,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4544,11 +4964,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4556,7 +4976,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4566,7 +4986,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4575,11 +4995,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -4587,7 +5007,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -4597,7 +5017,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -4606,11 +5026,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -4618,7 +5038,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -4628,7 +5048,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -4637,19 +5057,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -4659,7 +5079,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -4668,19 +5088,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -4690,7 +5110,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -4699,11 +5119,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4721,7 +5141,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -4730,19 +5150,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>125</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -4752,7 +5172,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -4765,17 +5185,234 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>33</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>45</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>33</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>38</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>33</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45297</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>45</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>net demand for forecast</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>33</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>80</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>net demand for safety</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45295</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>7</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>50</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45296</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>7</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>net demand for AO</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>50</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>supply shortage</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45293</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>PLANT_001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>DC_001</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>40</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>net demand for normal</t>
         </is>
       </c>
-      <c r="F52" t="n">
+      <c r="F59" t="n">
         <v>50</v>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>supply shortage</t>
         </is>
@@ -4855,7 +5492,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -4867,7 +5504,7 @@
         <v>45293</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -4885,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4896,14 +5533,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4921,7 +5558,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4">
@@ -4932,14 +5569,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -4951,19 +5588,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -4975,7 +5612,7 @@
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4987,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -4999,19 +5636,19 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>380</v>
+        <v>5</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5023,31 +5660,31 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5065,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module5/Module5Output_20240102.xlsx
@@ -1835,11 +1835,11 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1853,21 +1853,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H28" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
@@ -1878,19 +1878,21 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>40</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1420</v>
+        <v>30</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1900,36 +1902,36 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -1939,11 +1941,11 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1953,36 +1955,36 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -1992,11 +1994,11 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2006,36 +2008,36 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -2045,11 +2047,11 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2059,36 +2061,36 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -2098,11 +2100,11 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45293</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2112,48 +2114,50 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E33" t="n">
+        <v>33</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>forecast</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>50</v>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>net demand for safety</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>60</v>
-      </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>45292</v>
+        <v>45299</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1500</v>
+        <v>30</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2163,50 +2167,48 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>60</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1418</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2216,50 +2218,48 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>normal</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>45295</v>
+        <v>45293</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>50</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1418</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2269,44 +2269,46 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K36" t="n">
         <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1500</v>
+        <v>60</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -2320,36 +2322,36 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H37" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L37" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -2359,7 +2361,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -2373,36 +2375,36 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H38" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L38" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
@@ -2412,7 +2414,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -2426,36 +2428,36 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H39" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
@@ -2465,7 +2467,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -2479,46 +2481,44 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="H40" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>17</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -2532,36 +2532,36 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>50</v>
       </c>
       <c r="H41" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>45298</v>
+        <v>45295</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2585,36 +2585,36 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>50</v>
       </c>
       <c r="H42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>45299</v>
+        <v>45296</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -2638,44 +2638,44 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="H43" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L43" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1420</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -2689,44 +2689,46 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>50</v>
-      </c>
-      <c r="M44" t="n">
-        <v>1420</v>
+        <v>30</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -2740,11 +2742,11 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
@@ -2752,24 +2754,24 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H45" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
@@ -2779,7 +2781,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2793,11 +2795,11 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
@@ -2805,24 +2807,24 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H46" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I46" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K46" t="n">
         <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
@@ -2832,7 +2834,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -2846,11 +2848,11 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
@@ -2858,24 +2860,24 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K47" t="n">
         <v>4</v>
       </c>
       <c r="L47" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
@@ -2885,7 +2887,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2899,46 +2901,44 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>100</v>
       </c>
       <c r="H48" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I48" s="2" t="n">
-        <v>45297</v>
+        <v>45292</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K48" t="n">
         <v>4</v>
       </c>
       <c r="L48" t="n">
-        <v>34</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2952,29 +2952,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>45292</v>
+        <v>45295</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K49" t="n">
@@ -2983,13 +2983,15 @@
       <c r="L49" t="n">
         <v>0</v>
       </c>
-      <c r="M49" t="n">
-        <v>1000</v>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -3003,11 +3005,11 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
@@ -3021,11 +3023,11 @@
         <v>0</v>
       </c>
       <c r="I50" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K50" t="n">
@@ -3042,7 +3044,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -3056,15 +3058,15 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="G51" t="n">
@@ -3074,11 +3076,11 @@
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="K51" t="n">
@@ -3087,10 +3089,8 @@
       <c r="L51" t="n">
         <v>0</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>inf</t>
-        </is>
+      <c r="M51" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="52">
@@ -3099,7 +3099,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3109,39 +3109,39 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="M52" t="n">
-        <v>1000</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="53">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3164,7 +3164,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3172,10 +3172,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H53" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>45294</v>
@@ -3189,7 +3189,7 @@
         <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3217,7 +3217,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H54" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I54" s="2" t="n">
         <v>45295</v>
@@ -3242,7 +3242,7 @@
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3270,7 +3270,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3278,10 +3278,10 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H55" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>45296</v>
@@ -3295,7 +3295,7 @@
         <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3323,7 +3323,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
@@ -3331,10 +3331,10 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H56" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>45297</v>
@@ -3348,7 +3348,7 @@
         <v>4</v>
       </c>
       <c r="L56" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3376,7 +3376,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
@@ -3384,7 +3384,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3409,11 +3409,11 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -3435,13 +3435,13 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -3462,11 +3462,11 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3480,7 +3480,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -3488,13 +3488,13 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3533,15 +3533,15 @@
         </is>
       </c>
       <c r="E60" t="n">
+        <v>22</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
         <v>40</v>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="G60" t="n">
-        <v>50</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4428,7 +4428,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -4441,15 +4441,15 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -4468,15 +4468,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -4490,7 +4490,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -4499,15 +4499,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -4521,7 +4521,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -4530,15 +4530,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -4552,7 +4552,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45297</v>
+        <v>45298</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -4561,15 +4561,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -4583,7 +4583,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45293</v>
+        <v>45299</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -4592,19 +4592,19 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>forecast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45294</v>
+        <v>45293</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -4623,15 +4623,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F34" t="n">
@@ -4645,7 +4645,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4654,15 +4654,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -4676,7 +4676,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4685,15 +4685,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -4707,7 +4707,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45294</v>
+        <v>45296</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4716,19 +4716,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -4738,7 +4738,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45295</v>
+        <v>45297</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4747,19 +4747,19 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4778,19 +4778,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45297</v>
+        <v>45295</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4809,19 +4809,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45298</v>
+        <v>45296</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4840,19 +4840,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45299</v>
+        <v>45293</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4871,19 +4871,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>forecast</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45293</v>
+        <v>45294</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4902,19 +4902,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>safety</t>
+          <t>net demand for forecast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45294</v>
+        <v>45295</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4933,11 +4933,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -4964,11 +4964,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45296</v>
+        <v>45297</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4995,11 +4995,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45297</v>
+        <v>45293</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5026,19 +5026,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>net demand for forecast</t>
+          <t>net demand for safety</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45293</v>
+        <v>45295</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5057,19 +5057,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>net demand for safety</t>
+          <t>net demand for AO</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45295</v>
+        <v>45296</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5088,11 +5088,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45296</v>
+        <v>45293</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5119,15 +5119,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>net demand for AO</t>
+          <t>net demand for normal</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -5150,19 +5150,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>net demand for normal</t>
+          <t>safety</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -5193,7 +5193,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -5255,7 +5255,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -5309,7 +5309,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45295</v>
+        <v>45294</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45296</v>
+        <v>45295</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -5402,15 +5402,15 @@
         </is>
       </c>
       <c r="D59" t="n">
+        <v>22</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>net demand for normal</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
         <v>40</v>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>net demand for normal</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>50</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -5533,14 +5533,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_001</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -5558,25 +5558,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>340</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MAT_A</t>
+          <t>MAT_B</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PLANT_001</t>
+          <t>DC_002</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D4" t="n">
-        <v>274</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -5588,19 +5588,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAT_B</t>
+          <t>MAT_A</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -5612,7 +5612,7 @@
         <v>45293</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -5624,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -5641,14 +5641,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DC_001</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>266</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5660,13 +5660,13 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
@@ -5677,14 +5677,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DC_002</t>
+          <t>PLANT_001</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -5702,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
